--- a/FogliCalcolo/Piping/VolumeAccumulo.xlsx
+++ b/FogliCalcolo/Piping/VolumeAccumulo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Piping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\Piping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875AEEC-C452-4AE0-AE78-5AE1E74E29E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35025219-62BD-4AC1-BB08-5AA245D88893}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCE2D5F4-9B61-45F7-A9E1-6C27EA8E8055}"/>
   </bookViews>
@@ -306,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -420,28 +426,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -452,6 +444,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -538,7 +545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -812,7 +819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869873600"/>
@@ -871,7 +878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869880672"/>
@@ -912,7 +919,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -988,7 +995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1425,7 +1432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1999153232"/>
@@ -1484,7 +1491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1999150736"/>
@@ -1526,7 +1533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1556,7 +1563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1636,7 +1643,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1910,7 +1917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1934936016"/>
@@ -1972,7 +1979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1934939760"/>
@@ -2013,7 +2020,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4113,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7287A0EA-4893-4A50-8634-328F14976E2C}">
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,63 +4134,63 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="20"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="29">
         <v>10</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f>D3</f>
         <v>10</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="15">
         <f>$E$26/24</f>
         <v>33.75</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="17">
         <f>F3</f>
         <v>33.75</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="17">
         <f>G3-E3</f>
         <v>23.75</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <f>$K$3-$D$29+H3</f>
         <v>192.75</v>
       </c>
@@ -4194,262 +4201,262 @@
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="29">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>D4+E3</f>
         <v>20</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F26" si="0">$E$26/24</f>
         <v>33.75</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="17">
         <f>F4+G3</f>
         <v>67.5</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="17">
         <f t="shared" ref="H4:H26" si="1">G4-E4</f>
         <v>47.5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <f t="shared" ref="I4:I26" si="2">$K$3-$D$29+H4</f>
         <v>216.5</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="29">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E25" si="3">D5+E4</f>
         <v>30</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="17">
         <f t="shared" ref="G5:G26" si="4">F5+G4</f>
         <v>101.25</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <f t="shared" si="1"/>
         <v>71.25</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <f t="shared" si="2"/>
         <v>240.25</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="29">
         <v>20</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="29">
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <f t="shared" si="4"/>
         <v>168.75</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>98.75</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="18">
         <f t="shared" si="2"/>
         <v>267.75</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="29">
         <v>30</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <f t="shared" si="4"/>
         <v>202.5</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
         <f t="shared" si="2"/>
         <v>271.5</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="29">
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <f t="shared" si="4"/>
         <v>236.25</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>106.25</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="18">
         <f t="shared" si="2"/>
         <v>275.25</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="29">
         <v>30</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
       </c>
@@ -4461,469 +4468,469 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="29">
         <v>50</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="17">
         <f t="shared" si="4"/>
         <v>303.75</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="18">
         <f t="shared" si="2"/>
         <v>262.75</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="29">
         <v>50</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="17">
         <f t="shared" si="4"/>
         <v>337.5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="17">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="18">
         <f t="shared" si="2"/>
         <v>246.5</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>11</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="29">
         <v>50</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="17">
         <f t="shared" si="4"/>
         <v>371.25</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>61.25</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="18">
         <f t="shared" si="2"/>
         <v>230.25</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="29">
         <v>50</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="17">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="17">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>13</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="29">
         <v>50</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f t="shared" si="3"/>
         <v>410</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="17">
         <f t="shared" si="4"/>
         <v>438.75</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="17">
         <f t="shared" si="1"/>
         <v>28.75</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="18">
         <f t="shared" si="2"/>
         <v>197.75</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="29">
         <v>30</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="17">
         <f t="shared" si="4"/>
         <v>472.5</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="17">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="18">
         <f t="shared" si="2"/>
         <v>201.5</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="29">
         <v>40</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="17">
         <f t="shared" si="4"/>
         <v>506.25</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="17">
         <f t="shared" si="1"/>
         <v>26.25</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="18">
         <f t="shared" si="2"/>
         <v>195.25</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>15</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="29">
         <v>80</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="17">
         <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="17">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>16</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="29">
         <v>90</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <f t="shared" si="3"/>
         <v>650</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="17">
         <f t="shared" si="4"/>
         <v>573.75</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="17">
         <f t="shared" si="1"/>
         <v>-76.25</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="18">
         <f t="shared" si="2"/>
         <v>92.75</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>17</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="29">
         <v>80</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <f t="shared" si="3"/>
         <v>730</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="17">
         <f t="shared" si="4"/>
         <v>607.5</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="17">
         <f t="shared" si="1"/>
         <v>-122.5</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="18">
         <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="29">
         <v>20</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="17">
         <f t="shared" si="4"/>
         <v>641.25</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="17">
         <f t="shared" si="1"/>
         <v>-108.75</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="18">
         <f t="shared" si="2"/>
         <v>60.25</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>19</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="29">
         <v>20</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <f t="shared" si="3"/>
         <v>770</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="17">
         <f t="shared" si="4"/>
         <v>675</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="17">
         <f t="shared" si="1"/>
         <v>-95</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>21</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="29">
         <v>10</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="17">
         <f t="shared" si="4"/>
         <v>708.75</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="17">
         <f t="shared" si="1"/>
         <v>-71.25</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="18">
         <f t="shared" si="2"/>
         <v>97.75</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>21</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>22</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="29">
         <v>10</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="3"/>
         <v>790</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="17">
         <f t="shared" si="4"/>
         <v>742.5</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="17">
         <f t="shared" si="1"/>
         <v>-47.5</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="18">
         <f t="shared" si="2"/>
         <v>121.5</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>22</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>23</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="29">
         <v>10</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="17">
         <f t="shared" si="4"/>
         <v>776.25</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="17">
         <f t="shared" si="1"/>
         <v>-23.75</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="18">
         <f t="shared" si="2"/>
         <v>145.25</v>
       </c>
@@ -4935,26 +4942,26 @@
       <c r="C26" s="5">
         <v>24</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="30">
         <v>10</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ref="E26" si="5">D26+E25</f>
         <v>810</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="19">
         <f t="shared" si="4"/>
         <v>810</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="20">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
@@ -4975,19 +4982,19 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="27">
+      <c r="D29" s="21">
         <f>MAX(H3:H26)</f>
         <v>110</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="19">
         <f>MIN(H3:H26)</f>
         <v>-122.5</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="19">
         <f>D29-E29</f>
         <v>232.5</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="31">
         <v>1.2</v>
       </c>
     </row>
